--- a/W_LEGEND_documentos/W_LEGEND_documentos-media/W_LEGEND_documentos.xlsx
+++ b/W_LEGEND_documentos/W_LEGEND_documentos-media/W_LEGEND_documentos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9795" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9795" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -318,9 +318,6 @@
     <t>Formulário 2 do Anexo Técnico</t>
   </si>
   <si>
-    <t>Estatutos de Associação Comunitária</t>
-  </si>
-  <si>
     <t>Pedido de serviços de Georeferenciamento</t>
   </si>
   <si>
@@ -427,9 +424,6 @@
   </si>
   <si>
     <t>chefe_posto</t>
-  </si>
-  <si>
-    <t>Chefe do Posto</t>
   </si>
   <si>
     <t>aut_com</t>
@@ -498,14 +492,27 @@
   <si>
     <t>concat('documentos','_',${data},'_',${aut_n})</t>
   </si>
+  <si>
+    <t xml:space="preserve">Posto Administrativo </t>
+  </si>
+  <si>
+    <t>Processo de Legalização da Associação</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -667,322 +674,323 @@
   </borders>
   <cellStyleXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="236">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1707,7 +1715,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" s="27"/>
       <c r="J7" s="29" t="s">
@@ -1722,7 +1730,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>72</v>
@@ -1735,24 +1743,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>22</v>
@@ -1763,7 +1771,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>88</v>
@@ -1775,24 +1783,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J11" s="29" t="s">
         <v>22</v>
@@ -1800,33 +1808,33 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>122</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>123</v>
       </c>
       <c r="J12" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="H13" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>126</v>
-      </c>
       <c r="I13" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1857,11 +1865,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:A30"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,10 +2107,10 @@
         <v>71</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2110,10 +2118,10 @@
         <v>71</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,10 +2129,10 @@
         <v>71</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2198,10 +2206,10 @@
         <v>71</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,10 +2217,10 @@
         <v>87</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,10 +2228,10 @@
         <v>87</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,10 +2239,10 @@
         <v>87</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,7 +2250,7 @@
         <v>87</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>92</v>
@@ -2253,10 +2261,10 @@
         <v>87</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2264,10 +2272,10 @@
         <v>87</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2275,10 +2283,10 @@
         <v>87</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2286,7 +2294,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>91</v>
@@ -2297,10 +2305,10 @@
         <v>87</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2308,10 +2316,10 @@
         <v>87</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2319,7 +2327,7 @@
         <v>87</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>35</v>
@@ -2339,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,10 +2382,10 @@
         <v>90</v>
       </c>
       <c r="C2" s="4">
-        <v>201710191</v>
+        <v>201711011</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
